--- a/Exp-elecbridge/data/工作簿1.xlsx
+++ b/Exp-elecbridge/data/工作簿1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\Study\大二上\exp\Exp-elecbridge\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D00FA87-29A4-49F7-8FAE-6BBBDF1AC183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F99326A1-0716-441C-933B-BAF312C64043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{C8803BF8-2B12-47F8-A076-6F615D32ECD7}"/>
+    <workbookView xWindow="368" yWindow="368" windowWidth="17999" windowHeight="10432" xr2:uid="{C8803BF8-2B12-47F8-A076-6F615D32ECD7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
   <si>
     <t>E(V)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -53,11 +53,31 @@
     <t>R0'(欧)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R2(欧)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R1/R2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rx(欧)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <numFmts count="2">
+    <numFmt numFmtId="177" formatCode="0.0_ "/>
+    <numFmt numFmtId="178" formatCode="0.0_);[Red]\(0.0\)"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -83,7 +103,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -91,18 +111,57 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -440,127 +499,257 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E96AC3A2-EA4B-443F-9FED-9E009262A170}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="6.86328125" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="7.796875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="7.46484375" customWidth="1"/>
+    <col min="5" max="5" width="3.9296875" customWidth="1"/>
+    <col min="6" max="6" width="5.796875" customWidth="1"/>
+    <col min="7" max="7" width="8.1328125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="7.9296875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="6.86328125" customWidth="1"/>
+    <col min="10" max="10" width="4" customWidth="1"/>
+    <col min="11" max="11" width="5.19921875" customWidth="1"/>
+    <col min="12" max="12" width="8.1328125" style="5" customWidth="1"/>
+    <col min="13" max="13" width="8.1328125" style="4" customWidth="1"/>
+    <col min="14" max="14" width="6.33203125" customWidth="1"/>
+    <col min="15" max="15" width="9.06640625" style="4"/>
+    <col min="16" max="16" width="7.53125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="6" t="s">
         <v>3</v>
       </c>
+      <c r="I1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A2" s="3">
         <v>900</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="7">
         <v>61469</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="7">
         <v>61669</v>
       </c>
-      <c r="E2">
+      <c r="D2" s="3">
+        <v>122.938</v>
+      </c>
+      <c r="F2" s="3">
         <v>2.5</v>
       </c>
-      <c r="F2">
+      <c r="G2" s="7">
         <v>61583</v>
       </c>
-      <c r="G2">
+      <c r="H2" s="7">
         <v>61883</v>
       </c>
+      <c r="I2" s="3">
+        <v>82.110667000000007</v>
+      </c>
+      <c r="K2" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="L2" s="9">
+        <v>900</v>
+      </c>
+      <c r="M2" s="7">
+        <v>9000</v>
+      </c>
+      <c r="N2" s="3">
+        <f>L2/M2</f>
+        <v>0.1</v>
+      </c>
+      <c r="O2" s="7">
+        <v>61199</v>
+      </c>
+      <c r="P2" s="3">
+        <f>O2/M2*L2</f>
+        <v>6119.9</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A3" s="3">
         <v>1000</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="7">
         <v>61719</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="7">
         <v>61919</v>
       </c>
-      <c r="E3">
+      <c r="D3" s="3">
+        <v>123.438</v>
+      </c>
+      <c r="F3" s="3">
         <v>2</v>
       </c>
-      <c r="F3">
+      <c r="G3" s="7">
         <v>61383</v>
       </c>
-      <c r="G3">
+      <c r="H3" s="7">
         <v>61983</v>
       </c>
+      <c r="I3" s="3">
+        <v>40.921999999999997</v>
+      </c>
+      <c r="K3" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="L3" s="9">
+        <v>10000</v>
+      </c>
+      <c r="M3" s="7">
+        <v>30000</v>
+      </c>
+      <c r="N3" s="3">
+        <f t="shared" ref="N3:N4" si="0">L3/M3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="O3" s="7">
+        <v>625.4</v>
+      </c>
+      <c r="P3" s="3">
+        <f t="shared" ref="P3:P4" si="1">O3/M3*L3</f>
+        <v>208.46666666666667</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A4">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A4" s="3">
         <v>2000</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="7">
         <v>61509</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="7">
         <v>61809</v>
       </c>
-      <c r="E4">
+      <c r="D4" s="3">
+        <v>82.012</v>
+      </c>
+      <c r="F4" s="3">
         <v>1.5</v>
       </c>
-      <c r="F4">
+      <c r="G4" s="7">
         <v>61483</v>
       </c>
-      <c r="G4">
+      <c r="H4" s="7">
         <v>61933</v>
       </c>
+      <c r="I4" s="3">
+        <v>54.651555999999999</v>
+      </c>
+      <c r="K4" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="L4" s="9">
+        <v>90</v>
+      </c>
+      <c r="M4" s="7">
+        <v>20000</v>
+      </c>
+      <c r="N4" s="3">
+        <f t="shared" si="0"/>
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="O4" s="7">
+        <v>3274</v>
+      </c>
+      <c r="P4" s="3">
+        <f t="shared" si="1"/>
+        <v>14.733000000000001</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A5">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A5" s="3">
         <v>3000</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="7">
         <v>61609</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="7">
         <v>61905</v>
       </c>
-      <c r="E5">
+      <c r="D5" s="3">
+        <v>83.255405409999995</v>
+      </c>
+      <c r="F5" s="3">
         <v>1</v>
       </c>
-      <c r="F5">
+      <c r="G5" s="7">
         <v>61199</v>
       </c>
-      <c r="G5">
+      <c r="H5" s="7">
         <v>62199</v>
       </c>
+      <c r="I5" s="3">
+        <v>24.479600000000001</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A6">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A6" s="3">
         <v>5000</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="7">
         <v>61543</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="7">
         <v>61883</v>
+      </c>
+      <c r="D6" s="3">
+        <v>72.403529410000004</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>